--- a/data/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
+++ b/data/Resultats exp bag_couverts/Resultats exp bag_couverts/durée_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2BADD2-8504-4BF2-82A1-F4AA0C4A6515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA86326-5EE9-4725-BA9D-57146A7F747C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Segment 1</t>
   </si>
@@ -693,6 +693,24 @@
   </si>
   <si>
     <t>4Plateaux-P3-couv_28_05_24</t>
+  </si>
+  <si>
+    <t>Segment 190</t>
+  </si>
+  <si>
+    <t>Segment 191</t>
+  </si>
+  <si>
+    <t>Segment 192</t>
+  </si>
+  <si>
+    <t>Segment 193</t>
+  </si>
+  <si>
+    <t>Segment 194</t>
+  </si>
+  <si>
+    <t>Segment 195</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1119,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:GH32"/>
+  <dimension ref="A1:GN32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -1109,7 +1127,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1680,8 +1698,26 @@
       <c r="GH1" t="s">
         <v>189</v>
       </c>
+      <c r="GI1" t="s">
+        <v>220</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>221</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>222</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>223</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>224</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="2" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -1839,96 +1875,96 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>191</v>
       </c>
       <c r="B3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>2.8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>5.3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>6.1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>3.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>0.2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>7.1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>1.8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>1.2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>0.2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>4.7</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>3.4</v>
       </c>
-      <c r="P3" s="3">
+      <c r="R3" s="3">
         <v>5.5</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>4.7</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>5.9</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>2.6</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <v>5.3</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="V3" s="3">
+      <c r="X3" s="3">
         <v>0.6</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Y3" s="2">
         <v>17.8</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>1.8</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AA3" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AC3" s="2">
         <v>1.2</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AD3" s="3">
         <v>0.2</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>3.6</v>
       </c>
       <c r="AE3" s="2">
         <v>4</v>
@@ -1937,410 +1973,410 @@
         <v>3.6</v>
       </c>
       <c r="AG3" s="2">
-        <v>7.6820000000000164</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>6.4690000000000509</v>
+        <v>7.7</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>2.4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>5.9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>3.4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>7.5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>2.4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>2.8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>1.8</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>3.6</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>3.6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>4</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="3">
         <v>0.4</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>3.8</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>3</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>4.2</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V5" s="3">
+      <c r="X5" s="3">
         <v>0.2</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Y5" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>1.8</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2">
         <v>2.4</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AB5" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AC5" s="2">
         <v>2</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AD5" s="3">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AE5" s="2">
         <v>1.6</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AF5" s="3">
         <v>2.6</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>3.2</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AH5" s="3">
         <v>0.8</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AI5" s="2">
         <v>1.2</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AJ5" s="3">
         <v>0.6</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="2">
         <v>1.8</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AL5" s="3">
         <v>1</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>1.2</v>
       </c>
       <c r="AM5" s="2">
         <v>1.6</v>
       </c>
       <c r="AN5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AO5" s="2">
         <v>1.6</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AP5" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AQ5" s="2">
         <v>15.2</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AR5" s="1">
         <v>2.4</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AS5" s="2">
         <v>1.6</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AT5" s="3">
         <v>0.2</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AU5" s="2">
         <v>10.1</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AV5" s="1">
         <v>1.8</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AW5" s="2">
         <v>4</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AX5" s="3">
         <v>2.8</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AY5" s="2">
         <v>2</v>
       </c>
-      <c r="AX5" s="3">
+      <c r="AZ5" s="3">
         <v>0.4</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="BA5" s="2">
         <v>3.6</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BB5" s="1">
         <v>3.4</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BC5" s="2">
         <v>2</v>
       </c>
-      <c r="BB5" s="3">
+      <c r="BD5" s="3">
         <v>1.6</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BE5" s="2">
         <v>1.6</v>
       </c>
-      <c r="BD5" s="3">
+      <c r="BF5" s="3">
         <v>0.4</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BG5" s="2">
         <v>1</v>
       </c>
-      <c r="BF5" s="3">
+      <c r="BH5" s="3">
         <v>1.4</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BI5" s="2">
         <v>1.8</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BJ5" s="1">
         <v>6.5</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BK5" s="2">
         <v>6.9</v>
       </c>
-      <c r="BJ5" s="1">
+      <c r="BL5" s="1">
         <v>0.8</v>
       </c>
-      <c r="BK5" s="2">
+      <c r="BM5" s="2">
         <v>32.9</v>
       </c>
-      <c r="BL5" s="3">
+      <c r="BN5" s="3">
         <v>2.6</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="BO5" s="2">
         <v>2.4</v>
       </c>
-      <c r="BN5" s="3">
+      <c r="BP5" s="3">
         <v>0.6</v>
       </c>
-      <c r="BO5" s="2">
+      <c r="BQ5" s="2">
         <v>1.8</v>
       </c>
-      <c r="BP5" s="1">
+      <c r="BR5" s="1">
         <v>2.8</v>
       </c>
-      <c r="BQ5" s="2">
+      <c r="BS5" s="2">
         <v>1.6</v>
       </c>
-      <c r="BR5" s="3">
+      <c r="BT5" s="3">
         <v>1.4</v>
       </c>
-      <c r="BS5" s="2">
+      <c r="BU5" s="2">
         <v>5.7</v>
       </c>
-      <c r="BT5" s="3">
+      <c r="BV5" s="3">
         <v>0.6</v>
       </c>
-      <c r="BU5" s="2">
+      <c r="BW5" s="2">
         <v>1.4</v>
       </c>
-      <c r="BV5" s="1">
+      <c r="BX5" s="1">
         <v>0.8</v>
       </c>
-      <c r="BW5" s="2">
+      <c r="BY5" s="2">
         <v>3.2</v>
       </c>
-      <c r="BX5" s="3">
+      <c r="BZ5" s="3">
         <v>0.4</v>
       </c>
-      <c r="BY5" s="2">
+      <c r="CA5" s="2">
         <v>2.4</v>
       </c>
-      <c r="BZ5" s="1">
+      <c r="CB5" s="1">
         <v>2.4</v>
       </c>
-      <c r="CA5" s="2">
+      <c r="CC5" s="2">
         <v>5.5</v>
       </c>
-      <c r="CB5" s="1">
+      <c r="CD5" s="1">
         <v>0.8</v>
       </c>
-      <c r="CC5" s="2">
+      <c r="CE5" s="2">
         <v>1.8</v>
       </c>
-      <c r="CD5" s="3">
+      <c r="CF5" s="3">
         <v>1.6</v>
       </c>
-      <c r="CE5" s="2">
+      <c r="CG5" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="CF5" s="1">
+      <c r="CH5" s="1">
         <v>8.9</v>
       </c>
-      <c r="CG5" s="2">
-        <v>2.2249999999999659</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>8.8980000000000246</v>
-      </c>
       <c r="CI5" s="2">
-        <v>4.2469999999999573</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>2.021000000000015</v>
+        <v>4.2</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>193</v>
       </c>
       <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
         <v>3.8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>9.9</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>3.4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>2.8</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>1.4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>4.2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>10.9</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>3.2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>2.8</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>1.6</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="3">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>1</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>2.6</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>3.6</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <v>7.5</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>6.5</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <v>1</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>1</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AA6" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>8.5</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AC6" s="2">
         <v>6.5</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AD6" s="3">
         <v>1.6</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AE6" s="2">
         <v>2</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>1</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AG6" s="2">
         <v>22.4</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <v>6.1</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AI6" s="2">
         <v>16</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AJ6" s="3">
         <v>3.4</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AK6" s="2">
         <v>9.1</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AM6" s="2">
         <v>6.3</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AN6" s="1">
         <v>6.5</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AO6" s="2">
         <v>1.6</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AP6" s="3">
         <v>0.8</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AQ6" s="2">
         <v>6.7</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AR6" s="1">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>7.5</v>
       </c>
       <c r="AS6" s="2">
         <v>14.6</v>
@@ -2349,213 +2385,225 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D7" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>11.3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>6.7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>2.8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>2.8</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>17.8</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>3.4</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>3.5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>7</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>1.8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>2.5</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>22</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>7.4</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>4.2</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>1.4</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>2.7</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>19</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <v>4.2</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>29.8</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Z7" s="3">
         <v>14.2</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>6.3</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <v>4</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AD7" s="3">
         <v>0.2</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>1.2</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AF7" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AH7" s="3">
         <v>0.2</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AI7" s="2">
         <v>3.6</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AJ7" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AK7" s="2">
         <v>18.2</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AL7" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AM7" s="2">
         <v>25.7</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AN7" s="3">
         <v>0.2</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AO7" s="2">
         <v>10.3</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AP7" s="1">
         <v>1.6</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AQ7" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AR7" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AS7" s="2">
         <v>1.2</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AT7" s="3">
         <v>2</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AU7" s="2">
         <v>9.9</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AV7" s="1">
         <v>1.8</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AW7" s="2">
         <v>6.1</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AX7" s="1">
         <v>3.8</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AY7" s="2">
         <v>13.7</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AZ7" s="1">
         <v>2.8</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="BA7" s="2">
         <v>6.7</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="BB7" s="3">
         <v>0.4</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BC7" s="2">
         <v>23.4</v>
       </c>
-      <c r="BB7" s="3">
+      <c r="BD7" s="3">
         <v>3.4</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BE7" s="2">
         <v>1.8</v>
       </c>
-      <c r="BD7" s="3">
+      <c r="BF7" s="3">
         <v>1.8</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BG7" s="2">
         <v>9.1</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BH7" s="1">
         <v>3</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BI7" s="2">
         <v>11.3</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BJ7" s="1">
         <v>3.6</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BK7" s="2">
         <v>2</v>
       </c>
-      <c r="BJ7" s="3">
+      <c r="BL7" s="3">
         <v>0.4</v>
       </c>
-      <c r="BK7" s="2">
+      <c r="BM7" s="2">
         <v>1.2</v>
       </c>
-      <c r="BL7" s="3">
+      <c r="BN7" s="3">
         <v>0.6</v>
       </c>
-      <c r="BM7" s="2">
+      <c r="BO7" s="2">
         <v>15.4</v>
       </c>
-      <c r="BN7" s="1">
+      <c r="BP7" s="1">
         <v>3.8</v>
       </c>
-      <c r="BO7" s="2">
-        <v>1.4139999999999873</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>3.0329999999999018</v>
+      <c r="BQ7" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -2779,433 +2827,475 @@
         <v>2.4</v>
       </c>
       <c r="BW8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="BY8" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BX8" s="1">
+      <c r="BZ8" s="3">
         <v>0.9</v>
       </c>
-      <c r="BY8" s="2">
-        <v>4.1160000000000423</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>0.86499999999995225</v>
-      </c>
     </row>
-    <row r="9" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>2.8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>1.9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3.5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>6.3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>0.9</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>0.2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>1.7</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>3.2</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>1.3</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R9" s="1">
+      <c r="T9" s="1">
         <v>3.9</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
         <v>2.6</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1.5</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <v>1.3</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Y9" s="2">
         <v>3.9</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Z9" s="1">
         <v>3.5</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AA9" s="2">
         <v>1.7</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <v>2.4</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AC9" s="2">
         <v>14.5</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1.7</v>
       </c>
       <c r="AD9" s="1">
         <v>3.5</v>
       </c>
       <c r="AE9" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AG9" s="2">
         <v>2.4</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>2.6</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AI9" s="2">
         <v>14</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>3.2</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AK9" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>0.9</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AM9" s="2">
         <v>1.5</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AN9" s="3">
         <v>0.2</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AO9" s="2">
         <v>6.9</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AP9" s="3">
         <v>2.6</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>1.7</v>
       </c>
       <c r="AQ9" s="2">
         <v>11.5</v>
       </c>
       <c r="AR9" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="AT9" s="1">
         <v>1.5</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AU9" s="2">
         <v>8.9</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AV9" s="1">
         <v>3.5</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AW9" s="2">
         <v>11.5</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AX9" s="3">
         <v>2.4</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="AY9" s="2">
         <v>11.9</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AZ9" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="1">
         <v>10.4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>2.6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>1.3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>1.3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1.7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>3.7</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>0.4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>2.4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>0.9</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>1.5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1.5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>1.9</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>3.2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>6.9</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>3.5</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>2.4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>2.4</v>
       </c>
+      <c r="W10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X10" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="C11" s="2">
         <v>1.9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="2">
         <v>1.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="H11" s="1">
         <v>0.2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="I11" s="2">
         <v>5.6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="J11" s="1">
         <v>4.3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="K11" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H11" s="1">
+      <c r="L11" s="1">
         <v>1.5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="M11" s="2">
         <v>9.1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="N11" s="3">
         <v>0.4</v>
       </c>
-      <c r="K11" s="2">
+      <c r="O11" s="2">
         <v>3.9</v>
       </c>
-      <c r="L11" s="1">
+      <c r="P11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M11" s="2">
+      <c r="Q11" s="2">
         <v>3.2</v>
       </c>
-      <c r="N11" s="3">
+      <c r="R11" s="3">
         <v>2.8</v>
       </c>
-      <c r="O11" s="2">
+      <c r="S11" s="2">
         <v>11.3</v>
       </c>
-      <c r="P11" s="3">
+      <c r="T11" s="3">
         <v>1.5</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="U11" s="2">
         <v>1.9</v>
       </c>
-      <c r="R11" s="1">
+      <c r="V11" s="1">
         <v>5.8</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W11" s="2">
         <v>3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="X11" s="1">
         <v>2.4</v>
       </c>
-      <c r="U11" s="2">
+      <c r="Y11" s="2">
         <v>6.3</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Z11" s="1">
         <v>6.9</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AA11" s="2">
         <v>9.1</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AB11" s="1">
         <v>4.5</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AC11" s="2">
         <v>6.7</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AD11" s="1">
         <v>3</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AE11" s="2">
         <v>2.4</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AF11" s="3">
         <v>0.9</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AG11" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AH11" s="1">
         <v>6.1</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AI11" s="2">
         <v>4.8</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AJ11" s="3">
         <v>5</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AK11" s="2">
         <v>15.6</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AL11" s="3">
         <v>4.3</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AM11" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AN11" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AO11" s="2">
         <v>2.6</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AP11" s="3">
         <v>1.7</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AQ11" s="2">
         <v>3.9</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AR11" s="1">
         <v>0.9</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AS11" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AT11" s="3">
         <v>1.3</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AU11" s="2">
         <v>6.1</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AV11" s="3">
         <v>4.5</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AW11" s="2">
         <v>2.6</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AX11" s="3">
         <v>5.8</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AY11" s="2">
         <v>2.8</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AZ11" s="3">
         <v>0.9</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="BA11" s="2">
         <v>4.5</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="BB11" s="3">
         <v>5.4</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="BC11" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="BD11" s="1">
         <v>1.9</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BE11" s="2">
         <v>5.2</v>
       </c>
-      <c r="BB11" s="1">
+      <c r="BF11" s="1">
         <v>3.5</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BG11" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="BI11" s="2">
         <v>1.3</v>
       </c>
-      <c r="BD11" s="1">
+      <c r="BJ11" s="3">
         <v>0.6</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BK11" s="2">
         <v>10</v>
       </c>
-      <c r="BF11" s="3">
+      <c r="BL11" s="3">
         <v>0.6</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="BM11" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BN11" s="3">
         <v>0.6</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BO11" s="2">
         <v>5.8</v>
       </c>
-      <c r="BJ11" s="1">
+      <c r="BP11" s="3">
         <v>0.6</v>
       </c>
-      <c r="BK11" s="3">
-        <v>2.1659999999999968</v>
-      </c>
-      <c r="BL11" s="3">
-        <v>0.64900000000000091</v>
-      </c>
-      <c r="BM11" s="3">
-        <v>5.8470000000000368</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>0.64999999999997726</v>
+      <c r="BQ11" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="BR11" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="BT11" s="3">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -3383,289 +3473,325 @@
       <c r="BG12" s="2">
         <v>2.8</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BH12" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="1">
         <v>1.3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9.5</v>
       </c>
       <c r="E13" s="2">
         <v>1.9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H13" s="3">
         <v>3.2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>6.7</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3">
         <v>1.5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="L13" s="3">
-        <v>14.1</v>
       </c>
       <c r="M13" s="2">
         <v>3.2</v>
       </c>
       <c r="N13" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="P13" s="3">
         <v>4.8</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>5.6</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>3.7</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>1.3</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>1.5</v>
       </c>
-      <c r="T13" s="3">
+      <c r="V13" s="3">
         <v>1.5</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <v>2.4</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <v>6.3</v>
       </c>
-      <c r="W13" s="2">
+      <c r="Y13" s="2">
         <v>4.5</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>5</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AA13" s="2">
         <v>1.9</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AB13" s="3">
         <v>6.3</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AC13" s="2">
         <v>1.5</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AD13" s="3">
         <v>1.5</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AE13" s="2">
         <v>2.4</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>3.7</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AG13" s="2">
         <v>1.5</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <v>11.9</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AI13" s="2">
         <v>1.7</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AJ13" s="1">
         <v>4.3</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AK13" s="2">
         <v>1.5</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AL13" s="3">
         <v>0.6</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AM13" s="2">
         <v>3</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AN13" s="3">
         <v>1.7</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="AO13" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AP13" s="3">
         <v>4.5</v>
       </c>
-      <c r="AO13" s="2">
+      <c r="AQ13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AR13" s="1">
         <v>0.9</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AS13" s="2">
         <v>3.7</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AT13" s="3">
         <v>6.7</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AU13" s="2">
         <v>13.9</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AV13" s="3">
         <v>1.7</v>
       </c>
-      <c r="AU13" s="2">
+      <c r="AW13" s="2">
         <v>12.8</v>
       </c>
-      <c r="AV13" s="3">
+      <c r="AX13" s="3">
         <v>3.5</v>
       </c>
-      <c r="AW13" s="2">
+      <c r="AY13" s="2">
         <v>6.5</v>
       </c>
-      <c r="AX13" s="3">
+      <c r="AZ13" s="3">
         <v>4.5</v>
       </c>
-      <c r="AY13" s="2">
+      <c r="BA13" s="2">
         <v>1.9</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="BB13" s="3">
         <v>1.7</v>
       </c>
-      <c r="BA13" s="2">
+      <c r="BC13" s="2">
         <v>2.4</v>
       </c>
-      <c r="BB13" s="3">
+      <c r="BD13" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BE13" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BF13" s="1">
         <v>3.7</v>
       </c>
-      <c r="BE13" s="2">
+      <c r="BG13" s="2">
         <v>3.2</v>
       </c>
-      <c r="BF13" s="3">
+      <c r="BH13" s="3">
         <v>8.9</v>
       </c>
-      <c r="BG13" s="2">
+      <c r="BI13" s="2">
         <v>1.3</v>
       </c>
-      <c r="BH13" s="3">
+      <c r="BJ13" s="3">
         <v>1.5</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BK13" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BJ13" s="3">
+      <c r="BL13" s="3">
         <v>4.5</v>
       </c>
-      <c r="BK13" s="2">
+      <c r="BM13" s="2">
         <v>1.7</v>
       </c>
-      <c r="BL13" s="3">
+      <c r="BN13" s="3">
         <v>3</v>
       </c>
-      <c r="BM13" s="2">
+      <c r="BO13" s="2">
         <v>1.3</v>
       </c>
-      <c r="BN13" s="3">
+      <c r="BP13" s="3">
         <v>1.7</v>
       </c>
-      <c r="BO13" s="2">
+      <c r="BQ13" s="2">
         <v>11.3</v>
       </c>
-      <c r="BP13" s="3">
+      <c r="BR13" s="3">
         <v>6.3</v>
-      </c>
-      <c r="BQ13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BR13" s="3">
-        <v>1.1000000000000001</v>
       </c>
       <c r="BS13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BT13" s="1">
+      <c r="BT13" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BV13" s="1">
         <v>8</v>
       </c>
-      <c r="BU13" s="2">
+      <c r="BW13" s="2">
         <v>26.6</v>
       </c>
-      <c r="BV13" s="3">
+      <c r="BX13" s="3">
         <v>1.9</v>
       </c>
-      <c r="BW13" s="2">
+      <c r="BY13" s="2">
         <v>1.5</v>
       </c>
-      <c r="BX13" s="3">
+      <c r="BZ13" s="3">
         <v>0.6</v>
       </c>
-      <c r="BY13" s="2">
+      <c r="CA13" s="2">
         <v>1.3</v>
       </c>
-      <c r="BZ13" s="3">
+      <c r="CB13" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="CA13" s="2">
+      <c r="CC13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="CB13" s="3">
+      <c r="CD13" s="3">
         <v>2.4</v>
-      </c>
-      <c r="CC13" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="CD13" s="3">
-        <v>3.2</v>
       </c>
       <c r="CE13" s="2">
         <v>5.6</v>
       </c>
       <c r="CF13" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="CH13" s="3">
         <v>1.9</v>
       </c>
-      <c r="CG13" s="2">
+      <c r="CI13" s="2">
         <v>30.2</v>
       </c>
-      <c r="CH13" s="1">
+      <c r="CJ13" s="1">
         <v>9.5</v>
       </c>
-      <c r="CI13" s="2">
+      <c r="CK13" s="2">
         <v>1.5</v>
       </c>
-      <c r="CJ13" s="3">
+      <c r="CL13" s="3">
         <v>0.4</v>
-      </c>
-      <c r="CK13" s="2">
-        <v>8</v>
-      </c>
-      <c r="CL13" s="1">
-        <v>6.3</v>
       </c>
       <c r="CM13" s="2">
         <v>8</v>
       </c>
-      <c r="CN13" s="1">
+      <c r="CN13" s="3">
         <v>6.3</v>
       </c>
+      <c r="CO13" s="2">
+        <v>11</v>
+      </c>
+      <c r="CP13" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="CQ13" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="CR13" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="CS13" s="2">
+        <v>3</v>
+      </c>
+      <c r="CT13" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="CU13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CV13" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="CW13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="CX13" s="3">
+        <v>5</v>
+      </c>
+      <c r="CY13" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="CZ13" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="14" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -3823,7 +3949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -3969,7 +4095,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -4229,7 +4355,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="17" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -4437,17 +4563,17 @@
       <c r="BQ17" s="2">
         <v>3.7</v>
       </c>
-      <c r="BR17" s="1">
+      <c r="BR17" s="3">
         <v>7.4</v>
       </c>
       <c r="BS17" s="2">
-        <v>5.1980000000000359</v>
-      </c>
-      <c r="BT17" s="1">
-        <v>2.8149999999999977</v>
+        <v>5.2</v>
+      </c>
+      <c r="BT17" s="3">
+        <v>2.8</v>
       </c>
     </row>
-    <row r="18" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -4563,7 +4689,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -4901,10 +5027,10 @@
         <v>13.2</v>
       </c>
       <c r="DI19" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="DJ19" s="1">
-        <v>7.4</v>
+        <v>3.2</v>
+      </c>
+      <c r="DJ19" s="3">
+        <v>2.6</v>
       </c>
       <c r="DK19" s="2">
         <v>2.4</v>
@@ -4919,7 +5045,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -5070,124 +5196,136 @@
       <c r="AX20" s="1">
         <v>7.1</v>
       </c>
+      <c r="AY20" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C21" s="2">
+      <c r="E21" s="2">
         <v>12.1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <v>5.7</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>3.6</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>6.9</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <v>12.9</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>0.4</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>1.2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>18</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>9.9</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>3.6</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <v>12.5</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>5.5</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>9.1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="T21" s="1">
-        <v>13.1</v>
       </c>
       <c r="U21" s="2">
         <v>4.2</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="W21" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="X21" s="3">
         <v>4.7</v>
       </c>
-      <c r="W21" s="2">
+      <c r="Y21" s="2">
         <v>1</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <v>5.9</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AA21" s="2">
         <v>4.5</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>6.5</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>3.8</v>
       </c>
       <c r="AC21" s="2">
         <v>6.7</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AF21" s="3">
         <v>6.9</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AG21" s="2">
         <v>1</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AH21" s="3">
         <v>2</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AI21" s="2">
         <v>2.6</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AJ21" s="1">
         <v>3.2</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AK21" s="2">
         <v>15.4</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AL21" s="3">
         <v>1.4</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AM21" s="2">
         <v>1</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AN21" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -5411,7 +5549,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -5611,7 +5749,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>212</v>
       </c>
@@ -5799,7 +5937,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -5917,29 +6055,35 @@
       <c r="AM25" s="2">
         <v>5.3</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AN25" s="3">
         <v>8.9</v>
       </c>
       <c r="AO25" s="2">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AP25" s="3">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AQ25" s="2">
         <v>1</v>
       </c>
       <c r="AR25" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="3">
         <v>1.2</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AU25" s="2">
         <v>3.6</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AV25" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>214</v>
       </c>
@@ -6084,8 +6228,14 @@
       <c r="AV26" s="1">
         <v>0.9</v>
       </c>
+      <c r="AW26" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AX26" s="3">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -6207,7 +6357,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>207</v>
       </c>
@@ -6349,244 +6499,244 @@
       <c r="AU28" s="2">
         <v>1.3</v>
       </c>
-      <c r="AV28" s="1">
+      <c r="AV28" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>216</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="D29" s="1">
         <v>3.2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="E29" s="2">
         <v>3.7</v>
       </c>
-      <c r="D29" s="3">
+      <c r="F29" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>1.9</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>1.3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>2.4</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>2.4</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>0.4</v>
       </c>
-      <c r="K29" s="2">
+      <c r="M29" s="2">
         <v>4.8</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>0.6</v>
       </c>
-      <c r="M29" s="2">
+      <c r="O29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
         <v>3</v>
       </c>
-      <c r="O29" s="2">
+      <c r="Q29" s="2">
         <v>1.3</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>1.3</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="S29" s="2">
         <v>2.6</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S29" s="2">
+      <c r="U29" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T29" s="1">
+      <c r="V29" s="1">
         <v>1.7</v>
       </c>
-      <c r="U29" s="2">
+      <c r="W29" s="2">
         <v>5.4</v>
       </c>
-      <c r="V29" s="1">
+      <c r="X29" s="1">
         <v>2.6</v>
       </c>
-      <c r="W29" s="2">
+      <c r="Y29" s="2">
         <v>3</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Z29" s="1">
         <v>1.3</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AA29" s="2">
         <v>7.6</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AC29" s="2">
         <v>3</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>0.6</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>3.2</v>
       </c>
       <c r="AE29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF29" s="3">
-        <v>2.4</v>
+      <c r="AF29" s="1">
+        <v>3.2</v>
       </c>
       <c r="AG29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AH29" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ29" s="1">
         <v>6.5</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AK29" s="2">
         <v>1.5</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AL29" s="1">
         <v>0.9</v>
       </c>
-      <c r="AK29" s="2">
+      <c r="AM29" s="2">
         <v>7.1</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AN29" s="3">
         <v>0.2</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AO29" s="2">
         <v>5</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AP29" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AO29" s="2">
+      <c r="AQ29" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AP29" s="3">
+      <c r="AR29" s="3">
         <v>3.5</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AS29" s="2">
         <v>4.5</v>
       </c>
-      <c r="AR29" s="3">
+      <c r="AT29" s="3">
         <v>0.2</v>
       </c>
-      <c r="AS29" s="2">
+      <c r="AU29" s="2">
         <v>3.2</v>
       </c>
-      <c r="AT29" s="3">
+      <c r="AV29" s="3">
         <v>3.7</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AW29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AX29" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AW29" s="2">
+      <c r="AY29" s="2">
         <v>1.3</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AZ29" s="1">
         <v>3.5</v>
       </c>
-      <c r="AY29" s="2">
+      <c r="BA29" s="2">
         <v>4.8</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="BB29" s="3">
         <v>1.3</v>
       </c>
-      <c r="BA29" s="2">
+      <c r="BC29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BB29" s="1">
+      <c r="BD29" s="1">
         <v>1.3</v>
       </c>
-      <c r="BC29" s="2">
+      <c r="BE29" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BD29" s="3">
+      <c r="BF29" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="BE29" s="2">
+      <c r="BG29" s="2">
         <v>4.8</v>
       </c>
-      <c r="BF29" s="1">
+      <c r="BH29" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BG29" s="2">
+      <c r="BI29" s="2">
         <v>5</v>
       </c>
-      <c r="BH29" s="1">
+      <c r="BJ29" s="1">
         <v>2.4</v>
       </c>
-      <c r="BI29" s="2">
+      <c r="BK29" s="2">
         <v>4.3</v>
       </c>
-      <c r="BJ29" s="1">
+      <c r="BL29" s="1">
         <v>5.5</v>
       </c>
-      <c r="BK29" s="2">
+      <c r="BM29" s="2">
         <v>6.9</v>
       </c>
-      <c r="BL29" s="1">
+      <c r="BN29" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BM29" s="2">
+      <c r="BO29" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BN29" s="1">
+      <c r="BP29" s="1">
         <v>1.9</v>
       </c>
-      <c r="BO29" s="2">
+      <c r="BQ29" s="2">
         <v>2.8</v>
       </c>
-      <c r="BP29" s="3">
+      <c r="BR29" s="3">
         <v>1.7</v>
       </c>
-      <c r="BQ29" s="2">
+      <c r="BS29" s="2">
         <v>10.6</v>
       </c>
-      <c r="BR29" s="1">
+      <c r="BT29" s="1">
         <v>3</v>
       </c>
-      <c r="BS29" s="2">
+      <c r="BU29" s="2">
         <v>1.3</v>
       </c>
-      <c r="BT29" s="1">
+      <c r="BV29" s="1">
         <v>2.8</v>
       </c>
-      <c r="BU29" s="2">
+      <c r="BW29" s="2">
         <v>3</v>
       </c>
-      <c r="BV29" s="1">
+      <c r="BX29" s="1">
         <v>3.2</v>
       </c>
-      <c r="BW29" s="2">
+      <c r="BY29" s="2">
         <v>1.3</v>
       </c>
-      <c r="BX29" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="BY29" s="2">
-        <v>3</v>
-      </c>
-      <c r="BZ29" s="1">
-        <v>3.2</v>
+      <c r="BZ29" s="3">
+        <v>1.5</v>
       </c>
       <c r="CA29" s="2">
         <v>1.3</v>
@@ -6595,7 +6745,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>217</v>
       </c>
@@ -6737,17 +6887,23 @@
       <c r="AU30" s="2">
         <v>25.8</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="AV30" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="AW30" s="2">
-        <v>21</v>
+        <v>2.6</v>
       </c>
       <c r="AX30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="AZ30" s="3">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -6905,7 +7061,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:196" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -7471,10 +7627,28 @@
         <v>5.6</v>
       </c>
       <c r="GG32" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="GH32" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="GI32" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="GJ32" s="3">
+        <v>5</v>
+      </c>
+      <c r="GK32" s="2">
         <v>1.3</v>
       </c>
-      <c r="GH32" s="3">
+      <c r="GL32" s="3">
         <v>5</v>
+      </c>
+      <c r="GM32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="GN32" s="3">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
